--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gau20/Desktop/stage programmation/Alarme HDG/alarme 2 back/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E2D94A-30E5-A545-802B-0AE0D06F5D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C639D65E-C03A-FE43-81B8-0C1C63FFE1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8240" yWindow="2340" windowWidth="20560" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,8 +378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="138" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
